--- a/CurrentData/Raw Edgelists_Excel/SLR_raw_policies.xlsx
+++ b/CurrentData/Raw Edgelists_Excel/SLR_raw_policies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyras\OneDrive\Desktop\SLRSurvey\SLRSurvey\CurrentData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyras\OneDrive\Desktop\SLRSurvey\SLRSurvey\CurrentData\Raw Edgelists_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="24">
   <si>
     <t>Policy1</t>
   </si>
@@ -80,7 +80,22 @@
     <t>Local Tax</t>
   </si>
   <si>
-    <t>SecondOther</t>
+    <t>Geographic Focus</t>
+  </si>
+  <si>
+    <t>Land Use</t>
+  </si>
+  <si>
+    <t>Community Engagement</t>
+  </si>
+  <si>
+    <t>Educate Officials</t>
+  </si>
+  <si>
+    <t>Climate Change</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -401,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C869"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,7 +603,7 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -766,7 +781,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,7 +1122,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="C245" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,10 +2856,7 @@
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
-      </c>
-      <c r="C346" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -3422,10 +3434,10 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C401" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,7 +3508,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="C418" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,7 +4016,7 @@
         <v>13</v>
       </c>
       <c r="C459" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="C466" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +4104,7 @@
         <v>7</v>
       </c>
       <c r="C467" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -4725,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="B529" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,7 +4781,7 @@
         <v>14</v>
       </c>
       <c r="C533" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="C549" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="C561" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,7 +5108,7 @@
         <v>7</v>
       </c>
       <c r="C564" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="C569" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,7 +5264,7 @@
         <v>10</v>
       </c>
       <c r="C579" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,10 +5390,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>10</v>
-      </c>
-      <c r="B591" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -5466,10 +5475,7 @@
         <v>11</v>
       </c>
       <c r="B599" t="s">
-        <v>10</v>
-      </c>
-      <c r="C599" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -5639,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="C615" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="C635" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="C641" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -6239,7 +6245,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -6294,7 +6300,7 @@
         <v>6</v>
       </c>
       <c r="C679" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,11 +6323,6 @@
       </c>
       <c r="C681" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,9 +6684,6 @@
       <c r="B716" t="s">
         <v>15</v>
       </c>
-      <c r="C716" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
@@ -6719,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="B720" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C720" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
@@ -6755,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="C723" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
@@ -6763,10 +6761,7 @@
         <v>8</v>
       </c>
       <c r="B724" t="s">
-        <v>10</v>
-      </c>
-      <c r="C724" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="B725" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,10 +6806,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>10</v>
-      </c>
-      <c r="B730" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -6891,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="C737" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -6978,7 +6970,7 @@
         <v>12</v>
       </c>
       <c r="C747" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,7 +7367,7 @@
         <v>9</v>
       </c>
       <c r="C789" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,7 +7389,7 @@
         <v>7</v>
       </c>
       <c r="C791" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,10 +7427,7 @@
         <v>14</v>
       </c>
       <c r="B795" t="s">
-        <v>10</v>
-      </c>
-      <c r="C795" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">

--- a/CurrentData/Raw Edgelists_Excel/SLR_raw_policies.xlsx
+++ b/CurrentData/Raw Edgelists_Excel/SLR_raw_policies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="23">
   <si>
     <t>Policy1</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Innov Design</t>
-  </si>
-  <si>
-    <t>FirstOther</t>
   </si>
   <si>
     <t>Vulnerable</t>
@@ -416,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" topLeftCell="A778" workbookViewId="0">
+      <selection activeCell="G786" sqref="G786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -498,7 +495,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -509,7 +506,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -520,21 +517,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -545,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -553,7 +550,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -575,7 +572,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
@@ -589,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -603,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +616,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -636,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -669,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -699,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -765,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -776,17 +773,17 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -797,13 +794,13 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,15 +819,15 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -855,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -866,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -874,13 +871,13 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -899,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -924,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -940,10 +937,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -954,32 +951,32 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
         <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,18 +998,18 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -1039,10 +1036,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -1053,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -1064,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -1083,10 +1080,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
         <v>12</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -1105,10 +1102,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
@@ -1119,21 +1116,21 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
         <v>12</v>
-      </c>
-      <c r="B180" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1146,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
         <v>9</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -1185,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,15 +1193,15 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -1218,10 +1215,10 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,21 +1226,21 @@
         <v>3</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -1273,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -1284,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -1292,10 +1289,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -1306,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -1320,12 +1317,12 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -1347,10 +1344,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -1369,13 +1366,13 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -1391,10 +1388,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -1405,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -1438,15 +1435,15 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -1457,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
         <v>9</v>
@@ -1523,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -1534,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -1542,10 +1539,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -1553,13 +1550,13 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,15 +1564,15 @@
         <v>3</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,18 +1580,18 @@
         <v>3</v>
       </c>
       <c r="B224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -1605,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -1613,10 +1610,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -1630,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -1665,13 +1662,13 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -1723,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -1731,13 +1728,13 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,10 +1772,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -1802,13 +1799,13 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
         <v>12</v>
-      </c>
-      <c r="B246" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -1824,7 +1821,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,12 +1854,12 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -1876,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -1898,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -1906,18 +1903,18 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -1942,18 +1939,18 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1977,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -1994,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -2024,10 +2021,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -2043,7 +2040,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B269" t="s">
         <v>9</v>
@@ -2057,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -2073,7 +2070,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -2084,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -2095,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -2114,7 +2111,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
@@ -2128,10 +2125,10 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" t="s">
         <v>12</v>
-      </c>
-      <c r="C277" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -2150,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,7 +2177,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B282" t="s">
         <v>9</v>
@@ -2197,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,21 +2221,21 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
@@ -2260,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
@@ -2268,21 +2265,21 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -2293,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -2304,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -2337,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -2359,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -2367,18 +2364,18 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,18 +2383,18 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -2408,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -2419,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C305" t="s">
         <v>4</v>
@@ -2433,12 +2430,12 @@
         <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -2452,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
@@ -2474,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -2482,10 +2479,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -2496,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -2504,10 +2501,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -2515,13 +2512,13 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,12 +2529,12 @@
         <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -2554,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,7 +2578,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
@@ -2595,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -2603,10 +2600,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
         <v>12</v>
-      </c>
-      <c r="B323" t="s">
-        <v>13</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -2614,10 +2611,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -2625,10 +2622,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -2639,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C326" t="s">
         <v>4</v>
@@ -2650,10 +2647,10 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="C328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C329" t="s">
         <v>8</v>
@@ -2683,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -2691,7 +2688,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -2705,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,10 +2710,10 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C333" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="C334" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C335" t="s">
         <v>9</v>
@@ -2743,10 +2740,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -2754,13 +2751,13 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" t="s">
         <v>12</v>
-      </c>
-      <c r="C337" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,7 +2765,7 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -2779,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -2793,15 +2790,15 @@
         <v>4</v>
       </c>
       <c r="C340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -2812,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -2820,7 +2817,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -2834,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="B344" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -2845,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C345" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -2872,7 +2869,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -2886,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -2900,12 +2897,12 @@
         <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
@@ -2930,15 +2927,15 @@
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -2949,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -2960,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C356" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,23 +2968,23 @@
         <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B359" t="s">
         <v>8</v>
@@ -2998,10 +2995,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
@@ -3020,7 +3017,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -3034,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="B363" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B365" t="s">
         <v>9</v>
@@ -3064,10 +3061,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -3075,7 +3072,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B367" t="s">
         <v>4</v>
@@ -3086,7 +3083,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B368" t="s">
         <v>4</v>
@@ -3097,23 +3094,23 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
       </c>
       <c r="C370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B371" t="s">
         <v>8</v>
@@ -3127,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -3138,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C373" t="s">
         <v>7</v>
@@ -3149,21 +3146,21 @@
         <v>3</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C374" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C375" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B377" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -3204,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,10 +3239,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -3300,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -3311,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B389" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C389" t="s">
         <v>8</v>
@@ -3336,7 +3333,7 @@
         <v>6</v>
       </c>
       <c r="C391" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,15 +3346,15 @@
         <v>3</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -3368,7 +3365,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B395" t="s">
         <v>4</v>
@@ -3379,7 +3376,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -3390,10 +3387,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -3401,10 +3398,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,7 +3409,7 @@
         <v>4</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -3420,7 +3417,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B400" t="s">
         <v>4</v>
@@ -3434,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,13 +3461,13 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
         <v>12</v>
-      </c>
-      <c r="B404" t="s">
-        <v>6</v>
-      </c>
-      <c r="C404" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -3492,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="C407" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
         <v>7</v>
@@ -3508,7 +3505,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,15 +3513,15 @@
         <v>3</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C410" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B411" t="s">
         <v>9</v>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B412" t="s">
         <v>9</v>
@@ -3546,7 +3543,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B413" t="s">
         <v>8</v>
@@ -3571,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C415" t="s">
         <v>7</v>
@@ -3579,10 +3576,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B416" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C416" t="s">
         <v>7</v>
@@ -3590,10 +3587,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B417" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
         <v>7</v>
@@ -3601,7 +3598,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -3626,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="B420" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -3637,7 +3634,7 @@
         <v>3</v>
       </c>
       <c r="B423" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -3659,7 +3656,7 @@
         <v>8</v>
       </c>
       <c r="B425" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -3700,7 +3697,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B429" t="s">
         <v>4</v>
@@ -3711,7 +3708,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
@@ -3733,13 +3730,13 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
         <v>12</v>
-      </c>
-      <c r="B432" t="s">
-        <v>9</v>
-      </c>
-      <c r="C432" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="C433" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,15 +3758,15 @@
         <v>8</v>
       </c>
       <c r="C434" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B435" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C435" t="s">
         <v>7</v>
@@ -3777,7 +3774,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -3802,7 +3799,7 @@
         <v>4</v>
       </c>
       <c r="B438" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C438" t="s">
         <v>9</v>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B439" t="s">
         <v>8</v>
@@ -3821,10 +3818,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B440" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C440" t="s">
         <v>9</v>
@@ -3838,26 +3835,26 @@
         <v>6</v>
       </c>
       <c r="C441" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B442" t="s">
         <v>6</v>
       </c>
       <c r="C442" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B443" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -3873,7 +3870,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B445" t="s">
         <v>4</v>
@@ -3898,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="B447" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C447" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B448" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C448" t="s">
         <v>9</v>
@@ -3920,7 +3917,7 @@
         <v>6</v>
       </c>
       <c r="B449" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C449" t="s">
         <v>9</v>
@@ -3931,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="B450" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C450" t="s">
         <v>7</v>
@@ -3942,7 +3939,7 @@
         <v>8</v>
       </c>
       <c r="B452" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C452" t="s">
         <v>9</v>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="B454" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C454" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -3983,7 +3980,7 @@
         <v>9</v>
       </c>
       <c r="C456" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="C457" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="B458" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -4010,21 +4007,21 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>11</v>
+      </c>
+      <c r="B459" t="s">
         <v>12</v>
       </c>
-      <c r="B459" t="s">
-        <v>13</v>
-      </c>
       <c r="C459" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B460" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C460" t="s">
         <v>7</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
@@ -4043,10 +4040,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B462" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C462" t="s">
         <v>9</v>
@@ -4054,10 +4051,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B463" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -4068,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="B464" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C464" t="s">
         <v>7</v>
@@ -4076,7 +4073,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -4093,7 +4090,7 @@
         <v>7</v>
       </c>
       <c r="C466" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -4104,7 +4101,7 @@
         <v>7</v>
       </c>
       <c r="C467" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C468" t="s">
         <v>7</v>
@@ -4123,15 +4120,15 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C469" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B470" t="s">
         <v>8</v>
@@ -4142,13 +4139,13 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B471" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C471" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="B472" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C472" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -4167,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="B473" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C473" t="s">
         <v>6</v>
@@ -4189,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="B475" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C475" t="s">
         <v>6</v>
@@ -4238,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="B480" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C480" t="s">
         <v>6</v>
@@ -4257,7 +4254,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B482" t="s">
         <v>4</v>
@@ -4268,7 +4265,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B483" t="s">
         <v>4</v>
@@ -4282,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="B484" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -4290,10 +4287,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B485" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -4304,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="B486" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C486" t="s">
         <v>6</v>
@@ -4312,7 +4309,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B487" t="s">
         <v>8</v>
@@ -4326,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="B488" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C488" t="s">
         <v>6</v>
@@ -4348,15 +4345,15 @@
         <v>8</v>
       </c>
       <c r="B490" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C490" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B491" t="s">
         <v>8</v>
@@ -4370,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="B492" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C492" t="s">
         <v>7</v>
@@ -4397,18 +4394,18 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
       </c>
       <c r="C496" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B497" t="s">
         <v>6</v>
@@ -4419,21 +4416,21 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B498" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C498" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B499" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C499" t="s">
         <v>7</v>
@@ -4441,13 +4438,13 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B500" t="s">
         <v>8</v>
       </c>
       <c r="C500" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -4455,15 +4452,15 @@
         <v>3</v>
       </c>
       <c r="B501" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C501" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B502" t="s">
         <v>9</v>
@@ -4474,21 +4471,21 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B503" t="s">
         <v>6</v>
       </c>
       <c r="C503" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B504" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C504" t="s">
         <v>9</v>
@@ -4499,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="B505" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -4510,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="B506" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C506" t="s">
         <v>7</v>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B507" t="s">
         <v>4</v>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="B509" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C509" t="s">
         <v>7</v>
@@ -4545,10 +4542,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B510" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C510" t="s">
         <v>7</v>
@@ -4556,10 +4553,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B511" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -4575,7 +4572,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B513" t="s">
         <v>8</v>
@@ -4589,15 +4586,15 @@
         <v>3</v>
       </c>
       <c r="B514" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C514" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,29 +4613,29 @@
         <v>4</v>
       </c>
       <c r="B518" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C518" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
       </c>
       <c r="C519" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B520" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C520" t="s">
         <v>6</v>
@@ -4660,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B522" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -4668,10 +4665,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B523" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C523" t="s">
         <v>6</v>
@@ -4685,7 +4682,7 @@
         <v>6</v>
       </c>
       <c r="C524" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -4696,15 +4693,15 @@
         <v>8</v>
       </c>
       <c r="C525" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B526" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C526" t="s">
         <v>7</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B527" t="s">
         <v>6</v>
@@ -4726,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="B528" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C528" t="s">
         <v>7</v>
@@ -4734,18 +4731,18 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B529" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B530" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B531" t="s">
         <v>8</v>
@@ -4767,10 +4764,10 @@
         <v>3</v>
       </c>
       <c r="B532" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C532" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -4778,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="B533" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C533" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,10 +4786,10 @@
         <v>3</v>
       </c>
       <c r="B534" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C534" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -4800,29 +4797,29 @@
         <v>3</v>
       </c>
       <c r="B535" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C535" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B536" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C536" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B537" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C537" t="s">
         <v>7</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B538" t="s">
         <v>6</v>
@@ -4838,10 +4835,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B539" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C539" t="s">
         <v>7</v>
@@ -4849,10 +4846,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B540" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C540" t="s">
         <v>9</v>
@@ -4863,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="B541" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C541" t="s">
         <v>8</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B543" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C543" t="s">
         <v>6</v>
@@ -4904,13 +4901,13 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B545" t="s">
         <v>6</v>
       </c>
       <c r="C545" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -4918,29 +4915,29 @@
         <v>4</v>
       </c>
       <c r="B546" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C546" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B547" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C547" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B548" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C548" t="s">
         <v>9</v>
@@ -4948,13 +4945,13 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B549" t="s">
         <v>6</v>
       </c>
       <c r="C549" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="C550" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -4973,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="B551" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C551" t="s">
         <v>6</v>
@@ -4984,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="B552" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C552" t="s">
         <v>7</v>
@@ -5006,7 +5003,7 @@
         <v>3</v>
       </c>
       <c r="B554" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C554" t="s">
         <v>6</v>
@@ -5025,18 +5022,18 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B556" t="s">
         <v>6</v>
       </c>
       <c r="C556" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B557" t="s">
         <v>9</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B558" t="s">
         <v>4</v>
@@ -5061,7 +5058,7 @@
         <v>8</v>
       </c>
       <c r="B559" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C559" t="s">
         <v>7</v>
@@ -5069,24 +5066,24 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B560" t="s">
         <v>4</v>
       </c>
       <c r="C560" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B561" t="s">
         <v>8</v>
       </c>
       <c r="C561" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -5108,12 +5105,12 @@
         <v>7</v>
       </c>
       <c r="C564" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -5121,7 +5118,7 @@
         <v>9</v>
       </c>
       <c r="B566" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C566" t="s">
         <v>7</v>
@@ -5129,7 +5126,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B567" t="s">
         <v>6</v>
@@ -5140,10 +5137,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B568" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -5151,21 +5148,21 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B569" t="s">
         <v>4</v>
       </c>
       <c r="C569" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B570" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C570" t="s">
         <v>6</v>
@@ -5176,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="B571" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C571" t="s">
         <v>6</v>
@@ -5184,13 +5181,13 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B572" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C572" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -5198,7 +5195,7 @@
         <v>4</v>
       </c>
       <c r="B573" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C573" t="s">
         <v>7</v>
@@ -5209,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="B574" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C574" t="s">
         <v>7</v>
@@ -5220,7 +5217,7 @@
         <v>4</v>
       </c>
       <c r="B575" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,7 +5228,7 @@
         <v>9</v>
       </c>
       <c r="C576" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -5239,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="B577" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C577" t="s">
         <v>4</v>
@@ -5253,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="C578" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -5261,10 +5258,7 @@
         <v>4</v>
       </c>
       <c r="B579" t="s">
-        <v>10</v>
-      </c>
-      <c r="C579" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="B580" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -5280,7 +5274,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B581" t="s">
         <v>4</v>
@@ -5294,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="B582" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C582" t="s">
         <v>7</v>
@@ -5305,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="B583" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C583" t="s">
         <v>4</v>
@@ -5316,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="B584" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -5327,7 +5321,7 @@
         <v>6</v>
       </c>
       <c r="B585" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C585" t="s">
         <v>7</v>
@@ -5338,21 +5332,21 @@
         <v>3</v>
       </c>
       <c r="B586" t="s">
+        <v>11</v>
+      </c>
+      <c r="C586" t="s">
         <v>12</v>
-      </c>
-      <c r="C586" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B587" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C587" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -5360,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="B588" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -5374,12 +5368,12 @@
         <v>6</v>
       </c>
       <c r="C589" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B590" t="s">
         <v>6</v>
@@ -5390,7 +5384,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="B592" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -5409,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="B593" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C593" t="s">
         <v>9</v>
@@ -5420,7 +5414,7 @@
         <v>3</v>
       </c>
       <c r="B594" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -5428,7 +5422,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B595" t="s">
         <v>6</v>
@@ -5442,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="B596" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C596" t="s">
         <v>7</v>
@@ -5464,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="B598" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C598" t="s">
         <v>4</v>
@@ -5472,15 +5466,15 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B599" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B600" t="s">
         <v>5</v>
@@ -5505,10 +5499,10 @@
         <v>4</v>
       </c>
       <c r="B602" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C602" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -5516,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="B603" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -5524,18 +5518,18 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B604" t="s">
         <v>8</v>
       </c>
       <c r="C604" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B605" t="s">
         <v>9</v>
@@ -5557,7 +5551,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B607" t="s">
         <v>4</v>
@@ -5587,7 +5581,7 @@
         <v>6</v>
       </c>
       <c r="B610" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C610" t="s">
         <v>7</v>
@@ -5598,10 +5592,10 @@
         <v>4</v>
       </c>
       <c r="B611" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C611" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -5609,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="B612" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C612" t="s">
         <v>9</v>
@@ -5664,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="B617" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C617" t="s">
         <v>6</v>
@@ -5680,7 +5674,7 @@
         <v>3</v>
       </c>
       <c r="B619" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C619" t="s">
         <v>7</v>
@@ -5688,7 +5682,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,7 +5690,7 @@
         <v>3</v>
       </c>
       <c r="B621" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C621" t="s">
         <v>6</v>
@@ -5704,10 +5698,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" t="s">
         <v>12</v>
-      </c>
-      <c r="B622" t="s">
-        <v>13</v>
       </c>
       <c r="C622" t="s">
         <v>7</v>
@@ -5718,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="B624" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C624" t="s">
         <v>6</v>
@@ -5726,21 +5720,21 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B625" t="s">
         <v>9</v>
       </c>
       <c r="C625" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B626" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="B627" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C627" t="s">
         <v>7</v>
@@ -5762,15 +5756,15 @@
         <v>6</v>
       </c>
       <c r="C628" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B629" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C629" t="s">
         <v>8</v>
@@ -5781,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="B630" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -5789,7 +5783,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B631" t="s">
         <v>8</v>
@@ -5803,15 +5797,15 @@
         <v>3</v>
       </c>
       <c r="B632" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C632" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B633" t="s">
         <v>4</v>
@@ -5825,10 +5819,10 @@
         <v>3</v>
       </c>
       <c r="B634" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C634" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,12 +5833,12 @@
         <v>9</v>
       </c>
       <c r="C635" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B636" t="s">
         <v>9</v>
@@ -5855,10 +5849,10 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B637" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C637" t="s">
         <v>7</v>
@@ -5866,7 +5860,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B638" t="s">
         <v>5</v>
@@ -5880,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="B639" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C639" t="s">
         <v>7</v>
@@ -5891,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="B640" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -5899,18 +5893,18 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B641" t="s">
         <v>6</v>
       </c>
       <c r="C641" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B642" t="s">
         <v>9</v>
@@ -5924,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="B643" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -5935,7 +5929,7 @@
         <v>3</v>
       </c>
       <c r="B644" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C644" t="s">
         <v>7</v>
@@ -5943,7 +5937,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B645" t="s">
         <v>6</v>
@@ -5971,7 +5965,7 @@
         <v>6</v>
       </c>
       <c r="C647" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="B648" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C648" t="s">
         <v>7</v>
@@ -6001,18 +5995,18 @@
         <v>3</v>
       </c>
       <c r="B651" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C651" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B652" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C652" t="s">
         <v>7</v>
@@ -6020,7 +6014,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B653" t="s">
         <v>6</v>
@@ -6034,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B654" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C654" t="s">
         <v>7</v>
@@ -6045,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="B655" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C655" t="s">
         <v>7</v>
@@ -6064,7 +6058,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B657" t="s">
         <v>5</v>
@@ -6075,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="B658" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C658" t="s">
         <v>9</v>
@@ -6086,18 +6080,18 @@
         <v>3</v>
       </c>
       <c r="B659" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C659" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B660" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -6105,7 +6099,7 @@
         <v>6</v>
       </c>
       <c r="B661" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C661" t="s">
         <v>7</v>
@@ -6116,10 +6110,10 @@
         <v>3</v>
       </c>
       <c r="B662" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C662" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -6127,7 +6121,7 @@
         <v>3</v>
       </c>
       <c r="B663" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C663" t="s">
         <v>7</v>
@@ -6160,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="B666" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C666" t="s">
         <v>6</v>
@@ -6171,10 +6165,10 @@
         <v>3</v>
       </c>
       <c r="B667" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C667" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,7 +6179,7 @@
         <v>6</v>
       </c>
       <c r="C668" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,7 +6190,7 @@
         <v>6</v>
       </c>
       <c r="C669" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -6226,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="B672" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C672" t="s">
         <v>7</v>
@@ -6237,10 +6231,10 @@
         <v>3</v>
       </c>
       <c r="B673" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C673" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,10 +6255,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B676" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C676" t="s">
         <v>7</v>
@@ -6272,10 +6266,10 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B677" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C677" t="s">
         <v>7</v>
@@ -6286,7 +6280,7 @@
         <v>4</v>
       </c>
       <c r="B678" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -6300,7 +6294,7 @@
         <v>6</v>
       </c>
       <c r="C679" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -6308,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="B680" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -6327,21 +6321,21 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B683" t="s">
         <v>4</v>
       </c>
       <c r="C683" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B684" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -6349,18 +6343,18 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B685" t="s">
         <v>6</v>
       </c>
       <c r="C685" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B686" t="s">
         <v>4</v>
@@ -6371,7 +6365,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B687" t="s">
         <v>4</v>
@@ -6385,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="B688" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -6404,10 +6398,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B690" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C690" t="s">
         <v>6</v>
@@ -6418,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="B691" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -6429,7 +6423,7 @@
         <v>3</v>
       </c>
       <c r="B692" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C692" t="s">
         <v>4</v>
@@ -6440,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="B693" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C693" t="s">
         <v>8</v>
@@ -6451,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="B694" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -6459,13 +6453,13 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B695" t="s">
         <v>8</v>
       </c>
       <c r="C695" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,7 +6470,7 @@
         <v>6</v>
       </c>
       <c r="C696" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,7 +6489,7 @@
         <v>4</v>
       </c>
       <c r="B698" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C698" t="s">
         <v>7</v>
@@ -6514,7 +6508,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B700" t="s">
         <v>9</v>
@@ -6525,7 +6519,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B701" t="s">
         <v>6</v>
@@ -6536,10 +6530,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B703" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C703" t="s">
         <v>7</v>
@@ -6547,10 +6541,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B704" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C704" t="s">
         <v>7</v>
@@ -6561,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="B705" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -6572,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="B706" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -6580,7 +6574,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B707" t="s">
         <v>5</v>
@@ -6591,7 +6585,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B708" t="s">
         <v>9</v>
@@ -6605,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="B709" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C709" t="s">
         <v>7</v>
@@ -6616,15 +6610,15 @@
         <v>3</v>
       </c>
       <c r="B710" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C710" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B711" t="s">
         <v>8</v>
@@ -6641,18 +6635,18 @@
         <v>4</v>
       </c>
       <c r="C712" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B713" t="s">
         <v>4</v>
       </c>
       <c r="C713" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -6668,21 +6662,21 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B715" t="s">
         <v>6</v>
       </c>
       <c r="C715" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B716" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="B718" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C718" t="s">
         <v>7</v>
@@ -6703,10 +6697,10 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B719" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -6725,18 +6719,18 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B721" t="s">
         <v>4</v>
       </c>
       <c r="C721" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B722" t="s">
         <v>8</v>
@@ -6753,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="C723" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
@@ -6761,23 +6755,23 @@
         <v>8</v>
       </c>
       <c r="B724" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B725" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B726" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C726" t="s">
         <v>5</v>
@@ -6785,7 +6779,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
@@ -6814,7 +6808,7 @@
         <v>4</v>
       </c>
       <c r="B731" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C731" t="s">
         <v>5</v>
@@ -6836,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="B733" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C733" t="s">
         <v>6</v>
@@ -6847,7 +6841,7 @@
         <v>3</v>
       </c>
       <c r="B734" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C734" t="s">
         <v>8</v>
@@ -6855,13 +6849,13 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B735" t="s">
         <v>4</v>
       </c>
       <c r="C735" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -6880,18 +6874,18 @@
         <v>8</v>
       </c>
       <c r="B737" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C737" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B738" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C738" t="s">
         <v>9</v>
@@ -6910,7 +6904,7 @@
         <v>4</v>
       </c>
       <c r="C740" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -6921,12 +6915,12 @@
         <v>6</v>
       </c>
       <c r="C741" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B742" t="s">
         <v>6</v>
@@ -6937,18 +6931,18 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B744" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C744" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B745" t="s">
         <v>5</v>
@@ -6959,7 +6953,7 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,15 +6961,15 @@
         <v>4</v>
       </c>
       <c r="B747" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C747" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B748" t="s">
         <v>8</v>
@@ -6991,7 +6985,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B750" t="s">
         <v>8</v>
@@ -7002,7 +6996,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B751" t="s">
         <v>4</v>
@@ -7016,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="B752" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C752" t="s">
         <v>7</v>
@@ -7030,12 +7024,12 @@
         <v>8</v>
       </c>
       <c r="C753" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B755" t="s">
         <v>8</v>
@@ -7046,7 +7040,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B756" t="s">
         <v>9</v>
@@ -7060,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="B757" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C757" t="s">
         <v>6</v>
@@ -7079,7 +7073,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B760" t="s">
         <v>6</v>
@@ -7090,7 +7084,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B761" t="s">
         <v>8</v>
@@ -7107,7 +7101,7 @@
         <v>9</v>
       </c>
       <c r="C762" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -7118,7 +7112,7 @@
         <v>6</v>
       </c>
       <c r="C763" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,7 +7120,7 @@
         <v>3</v>
       </c>
       <c r="B764" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C764" t="s">
         <v>7</v>
@@ -7140,18 +7134,18 @@
         <v>4</v>
       </c>
       <c r="C765" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B766" t="s">
         <v>4</v>
       </c>
       <c r="C766" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="B769" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C769" t="s">
         <v>8</v>
@@ -7192,7 +7186,7 @@
         <v>3</v>
       </c>
       <c r="B770" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C770" t="s">
         <v>6</v>
@@ -7203,7 +7197,7 @@
         <v>3</v>
       </c>
       <c r="B771" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C771" t="s">
         <v>8</v>
@@ -7211,10 +7205,10 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B772" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C772" t="s">
         <v>7</v>
@@ -7222,10 +7216,10 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B773" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C773" t="s">
         <v>5</v>
@@ -7236,7 +7230,7 @@
         <v>6</v>
       </c>
       <c r="B774" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C774" t="s">
         <v>7</v>
@@ -7255,13 +7249,13 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B776" t="s">
         <v>6</v>
       </c>
       <c r="C776" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -7272,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="C777" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -7296,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="B780" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C780" t="s">
         <v>7</v>
@@ -7304,10 +7298,10 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B781" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C781" t="s">
         <v>7</v>
@@ -7315,7 +7309,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B783" t="s">
         <v>4</v>
@@ -7331,10 +7325,10 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B786" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C786" t="s">
         <v>6</v>
@@ -7342,10 +7336,10 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B787" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C787" t="s">
         <v>6</v>
@@ -7356,18 +7350,18 @@
         <v>6</v>
       </c>
       <c r="B788" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B789" t="s">
         <v>9</v>
       </c>
       <c r="C789" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -7383,18 +7377,18 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B791" t="s">
         <v>7</v>
       </c>
       <c r="C791" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B792" t="s">
         <v>8</v>
@@ -7405,13 +7399,13 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B793" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C793" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,12 +7413,12 @@
         <v>4</v>
       </c>
       <c r="B794" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B795" t="s">
         <v>3</v>
@@ -7432,7 +7426,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B797" t="s">
         <v>8</v>
@@ -7446,7 +7440,7 @@
         <v>3</v>
       </c>
       <c r="B798" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C798" t="s">
         <v>8</v>
@@ -7468,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B800" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C800" t="s">
         <v>7</v>
@@ -7511,13 +7505,13 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B805" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C805" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
@@ -7525,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="B807" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C807" t="s">
         <v>7</v>
@@ -7550,7 +7544,7 @@
         <v>8</v>
       </c>
       <c r="C810" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
@@ -7561,12 +7555,12 @@
         <v>6</v>
       </c>
       <c r="C811" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B812" t="s">
         <v>5</v>
@@ -7577,7 +7571,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B813" t="s">
         <v>9</v>
@@ -7591,15 +7585,15 @@
         <v>3</v>
       </c>
       <c r="B814" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C814" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B815" t="s">
         <v>6</v>
@@ -7615,10 +7609,10 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B819" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C819" t="s">
         <v>4</v>
@@ -7640,7 +7634,7 @@
         <v>8</v>
       </c>
       <c r="B826" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C826" t="s">
         <v>7</v>
@@ -7648,10 +7642,10 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B827" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C827" t="s">
         <v>6</v>
@@ -7665,18 +7659,18 @@
         <v>6</v>
       </c>
       <c r="C832" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B836" t="s">
         <v>6</v>
       </c>
       <c r="C836" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,7 +7678,7 @@
         <v>8</v>
       </c>
       <c r="B837" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C837" t="s">
         <v>7</v>
@@ -7692,10 +7686,10 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B839" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C839" t="s">
         <v>9</v>
@@ -7706,7 +7700,7 @@
         <v>3</v>
       </c>
       <c r="B842" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C842" t="s">
         <v>5</v>
@@ -7730,13 +7724,13 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B848" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C848" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
@@ -7755,7 +7749,7 @@
         <v>3</v>
       </c>
       <c r="B850" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C850" t="s">
         <v>4</v>
@@ -7763,7 +7757,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B858" t="s">
         <v>6</v>
